--- a/PRIMER PARCIAL INF-354/PREGUNTA 10/Pregunta 10.xlsx
+++ b/PRIMER PARCIAL INF-354/PREGUNTA 10/Pregunta 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\inf tareas\OCTAVO SEMESTRE\PRIMER PARCIAL INF-354\PREGUNTA 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{656BBCE4-BF2F-4435-BF92-3EF65E14FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD51EF2B-6726-480C-A5E8-9BFA17B7B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{128423FB-97DD-4D53-8C97-F5465F9916D0}"/>
   </bookViews>
@@ -25,18 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>DECIMAL</t>
   </si>
   <si>
-    <t>BINARIO</t>
-  </si>
-  <si>
-    <t>OCTAL</t>
-  </si>
-  <si>
-    <t>HEXADECIMAL</t>
+    <t>BINARIO(COCIENTE)</t>
+  </si>
+  <si>
+    <t>RESIDUO(BINARIO)</t>
+  </si>
+  <si>
+    <t>RESULTADO (BINARIO)</t>
+  </si>
+  <si>
+    <t>OCTAL(COCIENTE)</t>
+  </si>
+  <si>
+    <t>RESIDUO(OCTAL)</t>
+  </si>
+  <si>
+    <t>RESULTADO (OCTAL)</t>
+  </si>
+  <si>
+    <t>HEXADECIMAL(COCIENTE)</t>
+  </si>
+  <si>
+    <t>RESIDUO(HEXADECIMAL)</t>
+  </si>
+  <si>
+    <t>RESULTADO (HEXADECIMAL)</t>
   </si>
 </sst>
 </file>
@@ -60,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -189,7 +207,39 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -202,7 +252,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -212,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -224,6 +276,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,16 +592,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D325A36-6C53-4CC8-8341-687679F6D08C}">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -569,171 +629,205 @@
       <c r="B3" s="3">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f>DEC2BIN(B3)</f>
+      <c r="C3" s="4">
+        <f>B3/2</f>
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <f>MOD(B3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>D8&amp;D7&amp;D6&amp;D5&amp;D4&amp;D3</f>
         <v>111000</v>
       </c>
-      <c r="D3" s="4" t="str">
-        <f>DEC2OCT(B3)</f>
-        <v>70</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f>DEC2HEX(B3)</f>
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="9">
+        <f>C3/2</f>
+        <v>14</v>
+      </c>
+      <c r="D4" s="9">
+        <f>MOD(C3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="9">
+        <f>C4/2</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D9" si="0">MOD(C4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="9">
+        <f>ROUNDDOWN(C5/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9">
+        <f>ROUNDDOWN(C6/2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9">
+        <f>ROUNDDOWN(C7/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" ref="C4:C12" si="0">DEC2BIN(B4)</f>
-        <v>1001110</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:D12" si="1">DEC2OCT(B4)</f>
+      <c r="C13" s="4">
+        <f>ROUNDDOWN(B13/8,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <f>MOD(B13,8)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f>D15&amp;D14&amp;D13</f>
         <v>116</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" ref="E4:E12" si="2">DEC2HEX(B4)</f>
-        <v>4E</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>123</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1111011</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>173</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>7B</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>343</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>101010111</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>527</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>89</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>1011001</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>489</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>111101001</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>751</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1E9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>101011</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>2B</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>154</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>10011010</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>232</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>9A</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>453</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>111000101</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>705</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>1C5</v>
-      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="9">
+        <f>ROUNDDOWN(C13/8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <f>MOD(C13,8)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="9">
+        <f>ROUNDDOWN(C14/8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <f>MOD(C14,8)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <f>MOD(C15,8)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>95</v>
+      </c>
+      <c r="C20" s="4">
+        <f>ROUNDDOWN(B20/16,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <f>MOD(B20,16)</f>
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f>IF(D21&gt;9,CHAR(D21+55),D21)&amp;IF(D20&gt;9,CHAR(D20+55),D20)</f>
+        <v>5F</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="9">
+        <f>ROUNDDOWN(C20/16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <f>MOD(C20,16)</f>
+        <v>5</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
+        <f>MOD(C21,16)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
